--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Laet\Documents\3° semestre\Ciencia dos Dados\Projeto 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/viniciusph_al_insper_edu_br/Documents/Insper/3 B/DP Ciência dos Dados/Untitled Folder/Ci-ncia-dos-Dados-DP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C58F46B-8914-4A7D-93AA-062DA6F06D19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{7C58F46B-8914-4A7D-93AA-062DA6F06D19}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{0B94A063-F8FD-4BFA-89B0-006D9FA05108}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cars" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="82">
   <si>
     <t>mpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> cylinders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cubicinches</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> weightlbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> time-to-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> year</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> brand</t>
-  </si>
-  <si>
     <t xml:space="preserve"> US.</t>
   </si>
   <si>
@@ -70,12 +49,6 @@
     <t>34.3</t>
   </si>
   <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>16.9</t>
   </si>
   <si>
@@ -217,9 +190,6 @@
     <t>31.5</t>
   </si>
   <si>
-    <t>19.8</t>
-  </si>
-  <si>
     <t>33.8</t>
   </si>
   <si>
@@ -275,12 +245,33 @@
   </si>
   <si>
     <t>23.5</t>
+  </si>
+  <si>
+    <t>cylinders</t>
+  </si>
+  <si>
+    <t>cubicinches</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>weightlbs</t>
+  </si>
+  <si>
+    <t>time-to-60</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,48 +753,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,7 +810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1114,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:XFD178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,25 +1123,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,12 +1167,12 @@
         <v>1972</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1202,7 +1193,7 @@
         <v>1980</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,7 +1219,7 @@
         <v>1971</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,12 +1245,12 @@
         <v>1971</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1280,7 +1271,7 @@
         <v>1978</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,7 +1297,7 @@
         <v>1980</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1332,7 +1323,7 @@
         <v>1974</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1358,12 +1349,12 @@
         <v>1971</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1384,12 +1375,12 @@
         <v>1980</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1410,7 +1401,7 @@
         <v>1982</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,12 +1427,12 @@
         <v>1983</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1462,7 +1453,7 @@
         <v>1981</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,7 +1479,7 @@
         <v>1975</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,111 +1505,111 @@
         <v>1974</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="D16">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
+        <v>155</v>
+      </c>
+      <c r="E16">
+        <v>4360</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>4360</v>
+        <v>2020</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <v>1980</v>
       </c>
       <c r="H17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
       <c r="C18">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="E18">
-        <v>2020</v>
+        <v>3433</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>113</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>2278</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>304</v>
-      </c>
-      <c r="D19">
-        <v>150</v>
-      </c>
-      <c r="E19">
-        <v>3433</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
       <c r="G19">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,417 +1620,417 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E20">
-        <v>2278</v>
+        <v>2430</v>
       </c>
       <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>1971</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21">
         <v>16</v>
       </c>
-      <c r="G20">
-        <v>1973</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>107</v>
-      </c>
-      <c r="D21">
-        <v>90</v>
-      </c>
-      <c r="E21">
-        <v>2430</v>
-      </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
       <c r="G21">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>2019</v>
+        <v>2600</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="H22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>3012</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>1977</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>351</v>
+      </c>
+      <c r="D24">
+        <v>142</v>
+      </c>
+      <c r="E24">
+        <v>4054</v>
+      </c>
+      <c r="F24">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>121</v>
-      </c>
-      <c r="D23">
-        <v>110</v>
-      </c>
-      <c r="E23">
-        <v>2600</v>
-      </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
-      <c r="G23">
-        <v>1978</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24">
-        <v>81</v>
-      </c>
-      <c r="E24">
-        <v>3012</v>
-      </c>
-      <c r="F24">
-        <v>18</v>
-      </c>
       <c r="G24">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="D25">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>4054</v>
+        <v>1968</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
+      <c r="A26">
+        <v>33</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>1968</v>
+        <v>1795</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="D28">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>1773</v>
+        <v>4657</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="D29">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>4657</v>
+        <v>3574</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G29">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>18</v>
+      <c r="A30" t="s">
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E30">
-        <v>3574</v>
+        <v>2380</v>
       </c>
       <c r="F30">
         <v>21</v>
       </c>
       <c r="G30">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
+      <c r="A31">
+        <v>27</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E31">
-        <v>2380</v>
+        <v>2130</v>
       </c>
       <c r="F31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="D32">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>2130</v>
+        <v>3278</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33">
-        <v>3278</v>
+        <v>2506</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G33">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D34">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E34">
-        <v>2506</v>
+        <v>1985</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>21</v>
+      <c r="A35" t="s">
+        <v>16</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D35">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>3415</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2048,175 +2039,175 @@
         <v>97</v>
       </c>
       <c r="D36">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>1985</v>
+        <v>1835</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G36">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>110</v>
       </c>
       <c r="E37">
-        <v>3415</v>
+        <v>2720</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>26</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
       <c r="C38">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="D38">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="E38">
-        <v>1835</v>
+        <v>3955</v>
       </c>
       <c r="F38">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="D39">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E39">
-        <v>2720</v>
+        <v>3265</v>
       </c>
       <c r="F39">
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <v>1980</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>14</v>
-      </c>
-      <c r="G39">
-        <v>1978</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>26</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="D40">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40">
-        <v>3955</v>
+        <v>4638</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E41">
-        <v>3265</v>
+        <v>3645</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>16</v>
+      <c r="A42" t="s">
+        <v>20</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>17</v>
+      <c r="C42">
+        <v>250</v>
       </c>
       <c r="D42">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E42">
-        <v>3897</v>
+        <v>3520</v>
       </c>
       <c r="F42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G42">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2227,1743 +2218,1743 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>302</v>
+        <v>455</v>
       </c>
       <c r="D43">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="E43">
-        <v>4638</v>
+        <v>3086</v>
       </c>
       <c r="F43">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="D44">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E44">
-        <v>3645</v>
+        <v>2635</v>
       </c>
       <c r="F44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44">
+        <v>1982</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>318</v>
+      </c>
+      <c r="D45">
+        <v>150</v>
+      </c>
+      <c r="E45">
+        <v>3755</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+      <c r="G45">
         <v>1977</v>
       </c>
-      <c r="H44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>250</v>
-      </c>
-      <c r="D45">
-        <v>110</v>
-      </c>
-      <c r="E45">
-        <v>3520</v>
-      </c>
-      <c r="F45">
-        <v>16</v>
-      </c>
-      <c r="G45">
-        <v>1978</v>
-      </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="D46">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="E46">
-        <v>3086</v>
+        <v>2395</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
+      <c r="A47">
+        <v>29</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D47">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E47">
-        <v>2635</v>
+        <v>1940</v>
       </c>
       <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>1978</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>18</v>
       </c>
-      <c r="G47">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>200</v>
+      </c>
+      <c r="D48">
+        <v>88</v>
+      </c>
+      <c r="E48">
+        <v>3060</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="G48">
         <v>1982</v>
       </c>
-      <c r="H47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>13</v>
-      </c>
-      <c r="B48">
-        <v>8</v>
-      </c>
-      <c r="C48">
-        <v>318</v>
-      </c>
-      <c r="D48">
-        <v>150</v>
-      </c>
-      <c r="E48">
-        <v>3755</v>
-      </c>
-      <c r="F48">
-        <v>14</v>
-      </c>
-      <c r="G48">
-        <v>1977</v>
-      </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>400</v>
+      </c>
+      <c r="D49">
+        <v>150</v>
+      </c>
+      <c r="E49">
+        <v>4464</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>1974</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>22</v>
       </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>122</v>
-      </c>
-      <c r="D49">
-        <v>86</v>
-      </c>
-      <c r="E49">
-        <v>2395</v>
-      </c>
-      <c r="F49">
-        <v>16</v>
-      </c>
-      <c r="G49">
-        <v>1973</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>141</v>
+      </c>
+      <c r="D50">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>3190</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>1980</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>29</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>97</v>
-      </c>
-      <c r="D50">
-        <v>78</v>
-      </c>
-      <c r="E50">
-        <v>1940</v>
-      </c>
-      <c r="F50">
-        <v>15</v>
-      </c>
-      <c r="G50">
-        <v>1978</v>
-      </c>
-      <c r="H50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51">
-        <v>6</v>
-      </c>
       <c r="C51">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="D51">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="E51">
-        <v>3060</v>
+        <v>3609</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>400</v>
+        <v>116</v>
       </c>
       <c r="D52">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E52">
-        <v>4464</v>
+        <v>2158</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G52">
         <v>1974</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>141</v>
+        <v>350</v>
       </c>
       <c r="D53">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="E53">
-        <v>3190</v>
+        <v>4380</v>
       </c>
       <c r="F53">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="D54">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="E54">
-        <v>3609</v>
+        <v>4278</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H54" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D55">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E55">
-        <v>2158</v>
+        <v>2930</v>
       </c>
       <c r="F55">
         <v>16</v>
       </c>
       <c r="G55">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="D56">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="E56">
-        <v>4380</v>
+        <v>2075</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G56">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="D57">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="E57">
-        <v>4278</v>
+        <v>1937</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G57">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>360</v>
+      </c>
+      <c r="D58">
+        <v>175</v>
+      </c>
+      <c r="E58">
+        <v>3821</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>1974</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
         <v>6</v>
       </c>
-      <c r="C58">
-        <v>156</v>
-      </c>
-      <c r="D58">
-        <v>108</v>
-      </c>
-      <c r="E58">
-        <v>2930</v>
-      </c>
-      <c r="F58">
-        <v>16</v>
-      </c>
-      <c r="G58">
-        <v>1977</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
       <c r="C59">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="D59">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>2075</v>
+        <v>2945</v>
       </c>
       <c r="F59">
         <v>16</v>
       </c>
       <c r="G59">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="H59" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E60">
-        <v>1937</v>
+        <v>2379</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G60">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>13</v>
+      <c r="A61" t="s">
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="D61">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E61">
-        <v>3821</v>
+        <v>2910</v>
       </c>
       <c r="F61">
         <v>11</v>
       </c>
       <c r="G61">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="H61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>86</v>
+      </c>
+      <c r="D62">
+        <v>65</v>
+      </c>
+      <c r="E62">
+        <v>2110</v>
+      </c>
+      <c r="F62">
         <v>18</v>
       </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>232</v>
-      </c>
-      <c r="D62">
-        <v>100</v>
-      </c>
-      <c r="E62">
-        <v>2945</v>
-      </c>
-      <c r="F62">
-        <v>16</v>
-      </c>
       <c r="G62">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="D63">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="E63">
-        <v>2379</v>
+        <v>4237</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G63">
         <v>1974</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="D64">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E64">
-        <v>2910</v>
+        <v>3525</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G64">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>34</v>
+      <c r="A65">
+        <v>26</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D65">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E65">
-        <v>2110</v>
+        <v>1950</v>
       </c>
       <c r="F65">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G65">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>318</v>
+        <v>91</v>
       </c>
       <c r="D66">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="E66">
-        <v>4237</v>
+        <v>1965</v>
       </c>
       <c r="F66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G66">
-        <v>1974</v>
+        <v>1983</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="D67">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E67">
-        <v>3525</v>
+        <v>1825</v>
       </c>
       <c r="F67">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G67">
+        <v>1977</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>305</v>
+      </c>
+      <c r="D68">
+        <v>145</v>
+      </c>
+      <c r="E68">
+        <v>3880</v>
+      </c>
+      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="G68">
         <v>1978</v>
       </c>
-      <c r="H67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>26</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-      <c r="C68">
-        <v>97</v>
-      </c>
-      <c r="D68">
-        <v>46</v>
-      </c>
-      <c r="E68">
-        <v>1950</v>
-      </c>
-      <c r="F68">
-        <v>21</v>
-      </c>
-      <c r="G68">
-        <v>1974</v>
-      </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="D69">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E69">
-        <v>1965</v>
+        <v>3102</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69">
+        <v>1975</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>112</v>
+      </c>
+      <c r="D70">
+        <v>88</v>
+      </c>
+      <c r="E70">
+        <v>2640</v>
+      </c>
+      <c r="F70">
+        <v>19</v>
+      </c>
+      <c r="G70">
         <v>1983</v>
       </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70">
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
         <v>97</v>
       </c>
-      <c r="D70">
-        <v>71</v>
-      </c>
-      <c r="E70">
-        <v>1825</v>
-      </c>
-      <c r="F70">
-        <v>12</v>
-      </c>
-      <c r="G70">
-        <v>1977</v>
-      </c>
-      <c r="H70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-      <c r="C71">
-        <v>305</v>
-      </c>
       <c r="D71">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="E71">
-        <v>3880</v>
+        <v>2288</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G71">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="D72">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72">
-        <v>3102</v>
+        <v>2545</v>
       </c>
       <c r="F72">
         <v>17</v>
       </c>
       <c r="G72">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="H72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
       <c r="C73">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D73">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E73">
-        <v>2640</v>
+        <v>2219</v>
       </c>
       <c r="F73">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G73">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="D74">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E74">
-        <v>2288</v>
+        <v>3015</v>
       </c>
       <c r="F74">
         <v>17</v>
       </c>
       <c r="G74">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>24</v>
+      <c r="A75" t="s">
+        <v>27</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="D75">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E75">
-        <v>2545</v>
+        <v>3085</v>
       </c>
       <c r="F75">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>29</v>
+      <c r="A76" t="s">
+        <v>28</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="C76">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D76">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E76">
-        <v>2219</v>
+        <v>2515</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G76">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="D77">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E77">
-        <v>3015</v>
+        <v>2265</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G77">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="H77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="D78">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E78">
-        <v>3085</v>
+        <v>2350</v>
       </c>
       <c r="F78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="D79">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="E79">
-        <v>2515</v>
+        <v>4325</v>
       </c>
       <c r="F79">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G79">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>98</v>
+        <v>429</v>
       </c>
       <c r="D80">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="E80">
-        <v>2265</v>
+        <v>4952</v>
       </c>
       <c r="F80">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G80">
         <v>1974</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="D81">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E81">
-        <v>2350</v>
+        <v>3425</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G81">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>22</v>
+      <c r="A82">
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="D82">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="E82">
-        <v>4325</v>
+        <v>2694</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G82">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>429</v>
+        <v>116</v>
       </c>
       <c r="D83">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E83">
-        <v>4952</v>
+        <v>2220</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G83">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>39</v>
+      <c r="A84">
+        <v>35</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="D84">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="E84">
-        <v>3425</v>
+        <v>1613</v>
       </c>
       <c r="F84">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G84">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="H84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="D85">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85">
-        <v>2694</v>
+        <v>2774</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G85">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>25</v>
+      <c r="A86" t="s">
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="D86">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E86">
-        <v>2220</v>
+        <v>3465</v>
       </c>
       <c r="F86">
         <v>17</v>
       </c>
       <c r="G86">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="H86" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
       <c r="C87">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D87">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E87">
-        <v>1613</v>
+        <v>2125</v>
       </c>
       <c r="F87">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G87">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D88">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E88">
-        <v>2774</v>
+        <v>2720</v>
       </c>
       <c r="F88">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G88">
-        <v>1971</v>
+        <v>1983</v>
       </c>
       <c r="H88" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="D89">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E89">
-        <v>3465</v>
+        <v>1975</v>
       </c>
       <c r="F89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G89">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="H89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>28</v>
+      <c r="A90" t="s">
+        <v>22</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D90">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E90">
-        <v>2125</v>
+        <v>2300</v>
       </c>
       <c r="F90">
         <v>15</v>
       </c>
       <c r="G90">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>119</v>
+        <v>350</v>
       </c>
       <c r="D91">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="E91">
-        <v>2720</v>
+        <v>4100</v>
       </c>
       <c r="F91">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G91">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>41</v>
+      <c r="A92">
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="D92">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E92">
-        <v>1975</v>
+        <v>3329</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G92">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>31</v>
+      <c r="A93">
+        <v>26</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
       <c r="C93">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D93">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E93">
-        <v>2300</v>
+        <v>2255</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G93">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="D94">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="E94">
-        <v>4100</v>
+        <v>3907</v>
       </c>
       <c r="F94">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G94">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="H94" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E95">
-        <v>3329</v>
+        <v>4499</v>
       </c>
       <c r="F95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G95">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="H95" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="D96">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E96">
-        <v>2255</v>
+        <v>3139</v>
       </c>
       <c r="F96">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G96">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="H96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>17</v>
-      </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
       <c r="C97">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="D97">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E97">
-        <v>3907</v>
+        <v>3830</v>
       </c>
       <c r="F97">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G97">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="H97" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D98">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E98">
-        <v>4499</v>
+        <v>3781</v>
       </c>
       <c r="F98">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G98">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="H98" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D99">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="E99">
-        <v>3139</v>
+        <v>4997</v>
       </c>
       <c r="F99">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="H99" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>42</v>
+      <c r="A100">
+        <v>12</v>
       </c>
       <c r="B100">
         <v>8</v>
       </c>
       <c r="C100">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="D100">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="E100">
-        <v>3830</v>
+        <v>4906</v>
       </c>
       <c r="F100">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G100">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="H100" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E101">
-        <v>3781</v>
+        <v>2126</v>
       </c>
       <c r="F101">
         <v>17</v>
       </c>
       <c r="G101">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>11</v>
+      <c r="A102" t="s">
+        <v>34</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="D102">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E102">
-        <v>4997</v>
+        <v>2200</v>
       </c>
       <c r="F102">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G102">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="H102" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>12</v>
+      <c r="A103" t="s">
+        <v>35</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="D103">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E103">
-        <v>4906</v>
+        <v>2265</v>
       </c>
       <c r="F103">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G103">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>25</v>
+      <c r="A104" t="s">
+        <v>36</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="D104">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E104">
-        <v>2126</v>
+        <v>2635</v>
       </c>
       <c r="F104">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G104">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="H104" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
       <c r="C105">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D105">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E105">
-        <v>2200</v>
+        <v>2335</v>
       </c>
       <c r="F105">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G105">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="H105" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>44</v>
+      <c r="A106">
+        <v>30</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D106">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E106">
-        <v>2265</v>
+        <v>2065</v>
       </c>
       <c r="F106">
         <v>15</v>
       </c>
       <c r="G106">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="H106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>25</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>121</v>
+      </c>
+      <c r="D107">
+        <v>115</v>
+      </c>
+      <c r="E107">
+        <v>2671</v>
+      </c>
+      <c r="F107">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107">
-        <v>4</v>
-      </c>
-      <c r="C107">
-        <v>151</v>
-      </c>
-      <c r="D107">
-        <v>84</v>
-      </c>
-      <c r="E107">
-        <v>2635</v>
-      </c>
-      <c r="F107">
-        <v>16</v>
-      </c>
       <c r="G107">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="H107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="B108">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
       <c r="C108">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="D108">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="E108">
-        <v>2335</v>
+        <v>3504</v>
       </c>
       <c r="F108">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G108">
-        <v>1981</v>
+        <v>1971</v>
       </c>
       <c r="H108" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109">
+        <v>97</v>
+      </c>
+      <c r="D109">
         <v>88</v>
       </c>
-      <c r="D109">
-        <v>76</v>
-      </c>
       <c r="E109">
-        <v>2065</v>
+        <v>2279</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G109">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="H109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -3972,1215 +3963,1215 @@
         <v>121</v>
       </c>
       <c r="D110">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E110">
-        <v>2671</v>
+        <v>2933</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="H110" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111">
         <v>8</v>
       </c>
       <c r="C111">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="D111">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E111">
-        <v>3504</v>
+        <v>4335</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G111">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="H111" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D112">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E112">
-        <v>2279</v>
+        <v>1795</v>
       </c>
       <c r="F112">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G112">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>18</v>
+      <c r="A113" t="s">
+        <v>38</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D113">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="E113">
-        <v>2933</v>
+        <v>2130</v>
       </c>
       <c r="F113">
         <v>15</v>
       </c>
       <c r="G113">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="H113" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>225</v>
+      </c>
+      <c r="D114">
+        <v>95</v>
+      </c>
+      <c r="E114">
+        <v>3785</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114">
+        <v>1976</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>151</v>
+      </c>
+      <c r="D115">
+        <v>88</v>
+      </c>
+      <c r="E115">
+        <v>2740</v>
+      </c>
+      <c r="F115">
         <v>16</v>
       </c>
-      <c r="B114">
-        <v>8</v>
-      </c>
-      <c r="C114">
-        <v>351</v>
-      </c>
-      <c r="D114">
-        <v>149</v>
-      </c>
-      <c r="E114">
-        <v>4335</v>
-      </c>
-      <c r="F114">
-        <v>15</v>
-      </c>
-      <c r="G114">
+      <c r="G115">
         <v>1978</v>
       </c>
-      <c r="H114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>33</v>
-      </c>
-      <c r="B115">
-        <v>4</v>
-      </c>
-      <c r="C115">
-        <v>91</v>
-      </c>
-      <c r="D115">
-        <v>53</v>
-      </c>
-      <c r="E115">
-        <v>1795</v>
-      </c>
-      <c r="F115">
-        <v>18</v>
-      </c>
-      <c r="G115">
-        <v>1976</v>
-      </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>47</v>
+      <c r="A116">
+        <v>21</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="D116">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E116">
-        <v>2130</v>
+        <v>3039</v>
       </c>
       <c r="F116">
         <v>15</v>
       </c>
       <c r="G116">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="H116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>98</v>
+      </c>
+      <c r="D117">
+        <v>65</v>
+      </c>
+      <c r="E117">
+        <v>2045</v>
+      </c>
+      <c r="F117">
+        <v>16</v>
+      </c>
+      <c r="G117">
+        <v>1982</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>429</v>
+      </c>
+      <c r="D118">
+        <v>198</v>
+      </c>
+      <c r="E118">
+        <v>4341</v>
+      </c>
+      <c r="F118">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>18</v>
-      </c>
-      <c r="B117">
-        <v>6</v>
-      </c>
-      <c r="C117">
-        <v>225</v>
-      </c>
-      <c r="D117">
-        <v>95</v>
-      </c>
-      <c r="E117">
-        <v>3785</v>
-      </c>
-      <c r="F117">
-        <v>19</v>
-      </c>
-      <c r="G117">
-        <v>1976</v>
-      </c>
-      <c r="H117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118">
-        <v>151</v>
-      </c>
-      <c r="D118">
-        <v>88</v>
-      </c>
-      <c r="E118">
-        <v>2740</v>
-      </c>
-      <c r="F118">
-        <v>16</v>
-      </c>
       <c r="G118">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="H118" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="D119">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E119">
-        <v>3039</v>
+        <v>2202</v>
       </c>
       <c r="F119">
         <v>15</v>
       </c>
       <c r="G119">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="H119" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>49</v>
+      <c r="A120">
+        <v>26</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D120">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E120">
-        <v>2045</v>
+        <v>1963</v>
       </c>
       <c r="F120">
         <v>16</v>
       </c>
       <c r="G120">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="H120" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B121">
         <v>8</v>
       </c>
       <c r="C121">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D121">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E121">
-        <v>4341</v>
+        <v>4668</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G121">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="H121" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>27</v>
+      <c r="A122" t="s">
+        <v>41</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D122">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E122">
-        <v>2202</v>
+        <v>2745</v>
       </c>
       <c r="F122">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G122">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B123">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D123">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E123">
-        <v>1963</v>
+        <v>1834</v>
       </c>
       <c r="F123">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G123">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="H123" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>16</v>
+      <c r="A124" t="s">
+        <v>42</v>
       </c>
       <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>140</v>
+      </c>
+      <c r="D124">
+        <v>72</v>
+      </c>
+      <c r="E124">
+        <v>2565</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124">
+        <v>1977</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>13</v>
+      </c>
+      <c r="B125">
         <v>8</v>
       </c>
-      <c r="C124">
-        <v>400</v>
-      </c>
-      <c r="D124">
+      <c r="C125">
+        <v>360</v>
+      </c>
+      <c r="D125">
         <v>170</v>
       </c>
-      <c r="E124">
-        <v>4668</v>
-      </c>
-      <c r="F124">
-        <v>12</v>
-      </c>
-      <c r="G124">
-        <v>1976</v>
-      </c>
-      <c r="H124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125">
-        <v>156</v>
-      </c>
-      <c r="D125">
+      <c r="E125">
+        <v>4654</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>1974</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
         <v>105</v>
       </c>
-      <c r="E125">
-        <v>2745</v>
-      </c>
-      <c r="F125">
-        <v>17</v>
-      </c>
-      <c r="G125">
+      <c r="D126">
+        <v>75</v>
+      </c>
+      <c r="E126">
+        <v>2230</v>
+      </c>
+      <c r="F126">
+        <v>15</v>
+      </c>
+      <c r="G126">
         <v>1979</v>
       </c>
-      <c r="H125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>27</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126">
-        <v>97</v>
-      </c>
-      <c r="D126">
-        <v>60</v>
-      </c>
-      <c r="E126">
-        <v>1834</v>
-      </c>
-      <c r="F126">
-        <v>19</v>
-      </c>
-      <c r="G126">
-        <v>1972</v>
-      </c>
       <c r="H126" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>51</v>
+      <c r="A127">
+        <v>20</v>
       </c>
       <c r="B127">
         <v>4</v>
       </c>
       <c r="C127">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D127">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E127">
-        <v>2565</v>
+        <v>2582</v>
       </c>
       <c r="F127">
         <v>14</v>
       </c>
       <c r="G127">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="H127" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>13</v>
+      <c r="A128" t="s">
+        <v>44</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="D128">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="E128">
-        <v>4654</v>
+        <v>1800</v>
       </c>
       <c r="F128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G128">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="H128" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>52</v>
+      <c r="A129">
+        <v>26</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D129">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E129">
-        <v>2230</v>
+        <v>2300</v>
       </c>
       <c r="F129">
         <v>15</v>
       </c>
       <c r="G129">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="H129" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="D130">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E130">
-        <v>2582</v>
+        <v>2678</v>
       </c>
       <c r="F130">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G130">
+        <v>1981</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>455</v>
+      </c>
+      <c r="D131">
+        <v>225</v>
+      </c>
+      <c r="E131">
+        <v>4951</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
+      </c>
+      <c r="G131">
         <v>1974</v>
       </c>
-      <c r="H130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>53</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131">
-        <v>98</v>
-      </c>
-      <c r="D131">
-        <v>66</v>
-      </c>
-      <c r="E131">
-        <v>1800</v>
-      </c>
-      <c r="F131">
-        <v>14</v>
-      </c>
-      <c r="G131">
-        <v>1979</v>
-      </c>
       <c r="H131" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C132">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="D132">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="E132">
-        <v>2300</v>
+        <v>3672</v>
       </c>
       <c r="F132">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G132">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="H132" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="D133">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E133">
-        <v>2678</v>
+        <v>4440</v>
       </c>
       <c r="F133">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G133">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="H133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B134">
         <v>8</v>
       </c>
       <c r="C134">
-        <v>455</v>
+        <v>318</v>
       </c>
       <c r="D134">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="E134">
-        <v>4951</v>
+        <v>4190</v>
       </c>
       <c r="F134">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G134">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="H134" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="D135">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E135">
-        <v>3672</v>
+        <v>1955</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G135">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H135" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B136">
         <v>8</v>
       </c>
       <c r="C136">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="D136">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E136">
-        <v>4440</v>
+        <v>3169</v>
       </c>
       <c r="F136">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G136">
         <v>1976</v>
       </c>
       <c r="H136" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="D137">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="E137">
-        <v>4190</v>
+        <v>2945</v>
       </c>
       <c r="F137">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G137">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="H137" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D138">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E138">
-        <v>1955</v>
+        <v>2979</v>
       </c>
       <c r="F138">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G138">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H138" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>173</v>
+      </c>
+      <c r="D139">
+        <v>115</v>
+      </c>
+      <c r="E139">
+        <v>2700</v>
+      </c>
+      <c r="F139">
         <v>13</v>
       </c>
-      <c r="B139">
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <v>302</v>
-      </c>
-      <c r="D139">
-        <v>129</v>
-      </c>
-      <c r="E139">
-        <v>3169</v>
-      </c>
-      <c r="F139">
-        <v>12</v>
-      </c>
       <c r="G139">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="H139" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D140">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E140">
-        <v>2945</v>
+        <v>2171</v>
       </c>
       <c r="F140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G140">
         <v>1976</v>
       </c>
       <c r="H140" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D141">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E141">
-        <v>2979</v>
+        <v>2665</v>
       </c>
       <c r="F141">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G141">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="H141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D142">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E142">
-        <v>2700</v>
+        <v>1760</v>
       </c>
       <c r="F142">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G142">
+        <v>1982</v>
+      </c>
+      <c r="H142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>267</v>
+      </c>
+      <c r="D143">
+        <v>125</v>
+      </c>
+      <c r="E143">
+        <v>3605</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143">
         <v>1980</v>
       </c>
-      <c r="H142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>29</v>
-      </c>
-      <c r="B143">
-        <v>4</v>
-      </c>
-      <c r="C143">
-        <v>97</v>
-      </c>
-      <c r="D143">
-        <v>75</v>
-      </c>
-      <c r="E143">
-        <v>2171</v>
-      </c>
-      <c r="F143">
-        <v>16</v>
-      </c>
-      <c r="G143">
-        <v>1976</v>
-      </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B144">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D144">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E144">
-        <v>2665</v>
+        <v>2957</v>
       </c>
       <c r="F144">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G144">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="D145">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E145">
-        <v>1760</v>
+        <v>3360</v>
       </c>
       <c r="F145">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G145">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>39</v>
+      <c r="A146">
+        <v>27</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="D146">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E146">
-        <v>3605</v>
+        <v>2735</v>
       </c>
       <c r="F146">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G146">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="H146" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="D147">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="E147">
-        <v>2957</v>
+        <v>3693</v>
       </c>
       <c r="F147">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G147">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="H147" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="D148">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E148">
-        <v>3360</v>
+        <v>3205</v>
       </c>
       <c r="F148">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G148">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="H148" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>27</v>
+      <c r="A149" t="s">
+        <v>49</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D149">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E149">
-        <v>2735</v>
+        <v>2542</v>
       </c>
       <c r="F149">
         <v>18</v>
       </c>
       <c r="G149">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="H149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>15</v>
+      <c r="A150" t="s">
+        <v>50</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="D150">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="E150">
-        <v>3693</v>
+        <v>2560</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G150">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="H150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>57</v>
+      <c r="A151">
+        <v>14</v>
       </c>
       <c r="B151">
         <v>8</v>
       </c>
       <c r="C151">
-        <v>302</v>
+        <v>455</v>
       </c>
       <c r="D151">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="E151">
-        <v>3205</v>
+        <v>4425</v>
       </c>
       <c r="F151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G151">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="H151" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>58</v>
+      <c r="A152">
+        <v>15</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="D152">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E152">
-        <v>2542</v>
+        <v>3158</v>
       </c>
       <c r="F152">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G152">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>59</v>
+      <c r="A153">
+        <v>28</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D153">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E153">
-        <v>2560</v>
+        <v>2464</v>
       </c>
       <c r="F153">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G153">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154">
-        <v>455</v>
+        <v>250</v>
       </c>
       <c r="D154">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="E154">
-        <v>4425</v>
+        <v>3302</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G154">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="H154" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B155">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="D155">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E155">
-        <v>3158</v>
+        <v>2124</v>
       </c>
       <c r="F155">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G155">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="H155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>28</v>
+      <c r="A156" t="s">
+        <v>26</v>
       </c>
       <c r="B156">
         <v>4</v>
       </c>
       <c r="C156">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D156">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E156">
-        <v>2464</v>
+        <v>2135</v>
       </c>
       <c r="F156">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G156">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="H156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5191,715 +5182,715 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D157">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E157">
-        <v>3302</v>
+        <v>2634</v>
       </c>
       <c r="F157">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G157">
         <v>1972</v>
       </c>
       <c r="H157" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>18</v>
+      <c r="A158" t="s">
+        <v>51</v>
       </c>
       <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>163</v>
+      </c>
+      <c r="D158">
+        <v>133</v>
+      </c>
+      <c r="E158">
+        <v>3410</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158">
+        <v>1979</v>
+      </c>
+      <c r="H158" t="s">
         <v>3</v>
-      </c>
-      <c r="C158">
-        <v>70</v>
-      </c>
-      <c r="D158">
-        <v>90</v>
-      </c>
-      <c r="E158">
-        <v>2124</v>
-      </c>
-      <c r="F158">
-        <v>14</v>
-      </c>
-      <c r="G158">
-        <v>1974</v>
-      </c>
-      <c r="H158" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="D159">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E159">
-        <v>2135</v>
+        <v>3003</v>
       </c>
       <c r="F159">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G159">
+        <v>1981</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>318</v>
+      </c>
+      <c r="D160">
+        <v>140</v>
+      </c>
+      <c r="E160">
+        <v>4080</v>
+      </c>
+      <c r="F160">
+        <v>14</v>
+      </c>
+      <c r="G160">
         <v>1979</v>
       </c>
-      <c r="H159" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>19</v>
-      </c>
-      <c r="B160">
-        <v>6</v>
-      </c>
-      <c r="C160">
-        <v>232</v>
-      </c>
-      <c r="D160">
-        <v>100</v>
-      </c>
-      <c r="E160">
-        <v>2634</v>
-      </c>
-      <c r="F160">
-        <v>13</v>
-      </c>
-      <c r="G160">
-        <v>1972</v>
-      </c>
       <c r="H160" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>60</v>
+      <c r="A161">
+        <v>18</v>
       </c>
       <c r="B161">
         <v>6</v>
       </c>
       <c r="C161">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D161">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E161">
-        <v>3410</v>
+        <v>2984</v>
       </c>
       <c r="F161">
+        <v>15</v>
+      </c>
+      <c r="G161">
+        <v>1976</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>23</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>198</v>
+      </c>
+      <c r="D162">
+        <v>95</v>
+      </c>
+      <c r="E162">
+        <v>2904</v>
+      </c>
+      <c r="F162">
         <v>16</v>
       </c>
-      <c r="G161">
+      <c r="G162">
+        <v>1974</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>23</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>97</v>
+      </c>
+      <c r="D163">
+        <v>54</v>
+      </c>
+      <c r="E163">
+        <v>2254</v>
+      </c>
+      <c r="F163">
+        <v>24</v>
+      </c>
+      <c r="G163">
+        <v>1973</v>
+      </c>
+      <c r="H163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>260</v>
+      </c>
+      <c r="D164">
+        <v>110</v>
+      </c>
+      <c r="E164">
+        <v>3365</v>
+      </c>
+      <c r="F164">
+        <v>16</v>
+      </c>
+      <c r="G164">
         <v>1979</v>
       </c>
-      <c r="H161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>61</v>
-      </c>
-      <c r="B162">
-        <v>4</v>
-      </c>
-      <c r="C162">
-        <v>151</v>
-      </c>
-      <c r="D162">
-        <v>90</v>
-      </c>
-      <c r="E162">
-        <v>3003</v>
-      </c>
-      <c r="F162">
-        <v>20</v>
-      </c>
-      <c r="G162">
-        <v>1981</v>
-      </c>
-      <c r="H162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>29</v>
-      </c>
-      <c r="B163">
-        <v>8</v>
-      </c>
-      <c r="C163">
-        <v>318</v>
-      </c>
-      <c r="D163">
-        <v>140</v>
-      </c>
-      <c r="E163">
-        <v>4080</v>
-      </c>
-      <c r="F163">
-        <v>14</v>
-      </c>
-      <c r="G163">
-        <v>1979</v>
-      </c>
-      <c r="H163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>18</v>
-      </c>
-      <c r="B164">
-        <v>6</v>
-      </c>
-      <c r="C164">
-        <v>171</v>
-      </c>
-      <c r="D164">
-        <v>97</v>
-      </c>
-      <c r="E164">
-        <v>2984</v>
-      </c>
-      <c r="F164">
-        <v>15</v>
-      </c>
-      <c r="G164">
-        <v>1976</v>
-      </c>
       <c r="H164" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B165">
         <v>6</v>
       </c>
       <c r="C165">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D165">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E165">
-        <v>2904</v>
+        <v>3439</v>
       </c>
       <c r="F165">
         <v>16</v>
       </c>
       <c r="G165">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="H165" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B166">
         <v>4</v>
       </c>
       <c r="C166">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="D166">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E166">
-        <v>2254</v>
+        <v>2585</v>
       </c>
       <c r="F166">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G166">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="H166" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>62</v>
+      <c r="A167">
+        <v>20</v>
       </c>
       <c r="B167">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="D167">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E167">
-        <v>3365</v>
+        <v>2807</v>
       </c>
       <c r="F167">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G167">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="H167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
+        <v>38</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>105</v>
+      </c>
+      <c r="D168">
+        <v>63</v>
+      </c>
+      <c r="E168">
+        <v>2125</v>
+      </c>
+      <c r="F168">
+        <v>15</v>
+      </c>
+      <c r="G168">
+        <v>1983</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>29</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>107</v>
+      </c>
+      <c r="D169">
+        <v>72</v>
+      </c>
+      <c r="E169">
+        <v>2290</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169">
+        <v>1981</v>
+      </c>
+      <c r="H169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>54</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>131</v>
+      </c>
+      <c r="D170">
+        <v>103</v>
+      </c>
+      <c r="E170">
+        <v>2830</v>
+      </c>
+      <c r="F170">
         <v>16</v>
       </c>
-      <c r="B168">
-        <v>6</v>
-      </c>
-      <c r="C168">
-        <v>225</v>
-      </c>
-      <c r="D168">
-        <v>105</v>
-      </c>
-      <c r="E168">
-        <v>3439</v>
-      </c>
-      <c r="F168">
-        <v>16</v>
-      </c>
-      <c r="G168">
-        <v>1972</v>
-      </c>
-      <c r="H168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>26</v>
-      </c>
-      <c r="B169">
-        <v>4</v>
-      </c>
-      <c r="C169">
-        <v>156</v>
-      </c>
-      <c r="D169">
-        <v>92</v>
-      </c>
-      <c r="E169">
-        <v>2585</v>
-      </c>
-      <c r="F169">
-        <v>15</v>
-      </c>
-      <c r="G169">
-        <v>1983</v>
-      </c>
-      <c r="H169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>20</v>
-      </c>
-      <c r="B170">
-        <v>6</v>
-      </c>
-      <c r="C170">
-        <v>156</v>
-      </c>
-      <c r="D170">
-        <v>122</v>
-      </c>
-      <c r="E170">
-        <v>2807</v>
-      </c>
-      <c r="F170">
-        <v>14</v>
-      </c>
       <c r="G170">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B171">
         <v>4</v>
       </c>
       <c r="C171">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D171">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E171">
-        <v>2125</v>
+        <v>2575</v>
       </c>
       <c r="F171">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G171">
         <v>1983</v>
       </c>
       <c r="H171" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>38</v>
+      <c r="A172">
+        <v>21</v>
       </c>
       <c r="B172">
         <v>4</v>
       </c>
       <c r="C172">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D172">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E172">
-        <v>2290</v>
+        <v>2226</v>
       </c>
       <c r="F172">
         <v>17</v>
       </c>
       <c r="G172">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>63</v>
+      <c r="A173">
+        <v>26</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D173">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E173">
-        <v>2830</v>
+        <v>2189</v>
       </c>
       <c r="F173">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G173">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="H173" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C174">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="D174">
-        <v>49</v>
-      </c>
-      <c r="E174" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="E174">
+        <v>4385</v>
       </c>
       <c r="F174">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G174">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H174" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C175">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="D175">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="E175">
-        <v>2575</v>
+        <v>3672</v>
       </c>
       <c r="F175">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G175">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="H175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>21</v>
-      </c>
-      <c r="B176">
-        <v>4</v>
-      </c>
       <c r="C176">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="D176">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E176">
-        <v>2226</v>
+        <v>3570</v>
       </c>
       <c r="F176">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G176">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="H176" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>26</v>
+      <c r="A177" t="s">
+        <v>55</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D177">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E177">
-        <v>2189</v>
+        <v>2045</v>
       </c>
       <c r="F177">
+        <v>19</v>
+      </c>
+      <c r="G177">
+        <v>1978</v>
+      </c>
+      <c r="H177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>97</v>
+      </c>
+      <c r="D178">
+        <v>67</v>
+      </c>
+      <c r="E178">
+        <v>2145</v>
+      </c>
+      <c r="F178">
         <v>18</v>
       </c>
-      <c r="G177">
-        <v>1973</v>
-      </c>
-      <c r="H177" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>14</v>
-      </c>
-      <c r="B178">
-        <v>8</v>
-      </c>
-      <c r="C178">
-        <v>400</v>
-      </c>
-      <c r="D178">
-        <v>175</v>
-      </c>
-      <c r="E178">
-        <v>4385</v>
-      </c>
-      <c r="F178">
-        <v>12</v>
-      </c>
       <c r="G178">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="H178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>14</v>
+      <c r="A179" t="s">
+        <v>20</v>
       </c>
       <c r="B179">
         <v>8</v>
       </c>
       <c r="C179">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D179">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E179">
-        <v>3672</v>
+        <v>4215</v>
       </c>
       <c r="F179">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="H179" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>27</v>
+      <c r="A180">
+        <v>18</v>
       </c>
       <c r="B180">
         <v>8</v>
       </c>
       <c r="C180">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D180">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E180">
-        <v>3570</v>
+        <v>3436</v>
       </c>
       <c r="F180">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G180">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="H180" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>64</v>
+      <c r="A181">
+        <v>34</v>
       </c>
       <c r="B181">
         <v>4</v>
       </c>
       <c r="C181">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D181">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E181">
-        <v>2045</v>
+        <v>2395</v>
       </c>
       <c r="F181">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G181">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B182">
         <v>6</v>
       </c>
-      <c r="C182" t="s">
-        <v>17</v>
+      <c r="C182">
+        <v>200</v>
       </c>
       <c r="D182">
         <v>85</v>
       </c>
       <c r="E182">
-        <v>2990</v>
+        <v>3070</v>
       </c>
       <c r="F182">
+        <v>17</v>
+      </c>
+      <c r="G182">
+        <v>1979</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>18</v>
       </c>
-      <c r="G182">
-        <v>1980</v>
-      </c>
-      <c r="H182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>66</v>
-      </c>
       <c r="B183">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C183">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="D183">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E183">
-        <v>2145</v>
+        <v>3459</v>
       </c>
       <c r="F183">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G183">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>29</v>
+      <c r="A184">
+        <v>13</v>
       </c>
       <c r="B184">
         <v>8</v>
       </c>
       <c r="C184">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D184">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E184">
-        <v>4215</v>
+        <v>3940</v>
       </c>
       <c r="F184">
         <v>13</v>
@@ -5908,111 +5899,111 @@
         <v>1977</v>
       </c>
       <c r="H184" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B185">
         <v>8</v>
       </c>
       <c r="C185">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="D185">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E185">
-        <v>3436</v>
+        <v>4129</v>
       </c>
       <c r="F185">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G185">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="H185" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C186">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="D186">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="E186">
-        <v>2395</v>
+        <v>4735</v>
       </c>
       <c r="F186">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G186">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="H186" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="D187">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E187">
-        <v>3070</v>
+        <v>2620</v>
       </c>
       <c r="F187">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G187">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="H187" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>18</v>
+      <c r="A188" t="s">
+        <v>59</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="D188">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E188">
-        <v>3459</v>
+        <v>2670</v>
       </c>
       <c r="F188">
         <v>16</v>
       </c>
       <c r="G188">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="H188" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6023,833 +6014,833 @@
         <v>8</v>
       </c>
       <c r="C189">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="D189">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E189">
-        <v>3940</v>
+        <v>4422</v>
       </c>
       <c r="F189">
         <v>13</v>
       </c>
       <c r="G189">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="H189" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B190">
         <v>8</v>
       </c>
       <c r="C190">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D190">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E190">
-        <v>4129</v>
+        <v>4082</v>
       </c>
       <c r="F190">
         <v>13</v>
       </c>
       <c r="G190">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="H190" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B191">
         <v>8</v>
       </c>
       <c r="C191">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="D191">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="E191">
-        <v>4735</v>
+        <v>4077</v>
       </c>
       <c r="F191">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G191">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H191" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B192">
         <v>4</v>
       </c>
       <c r="C192">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D192">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E192">
-        <v>2620</v>
+        <v>2144</v>
       </c>
       <c r="F192">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G192">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="H192" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="B193">
         <v>4</v>
       </c>
       <c r="C193">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D193">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E193">
-        <v>2670</v>
+        <v>2490</v>
       </c>
       <c r="F193">
         <v>16</v>
       </c>
       <c r="G193">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="H193" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>13</v>
+      <c r="A194" t="s">
+        <v>61</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C194">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="D194">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="E194">
-        <v>4422</v>
+        <v>1985</v>
       </c>
       <c r="F194">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G194">
-        <v>1973</v>
+        <v>1979</v>
       </c>
       <c r="H194" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="D195">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="E195">
-        <v>4082</v>
+        <v>1937</v>
       </c>
       <c r="F195">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G195">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="H195" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>85</v>
+      </c>
+      <c r="D196">
+        <v>70</v>
+      </c>
+      <c r="E196">
+        <v>1945</v>
+      </c>
+      <c r="F196">
+        <v>17</v>
+      </c>
+      <c r="G196">
+        <v>1978</v>
+      </c>
+      <c r="H196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>26</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>116</v>
+      </c>
+      <c r="D197">
+        <v>75</v>
+      </c>
+      <c r="E197">
+        <v>2246</v>
+      </c>
+      <c r="F197">
         <v>14</v>
       </c>
-      <c r="B196">
-        <v>8</v>
-      </c>
-      <c r="C196">
-        <v>318</v>
-      </c>
-      <c r="D196">
-        <v>150</v>
-      </c>
-      <c r="E196">
-        <v>4077</v>
-      </c>
-      <c r="F196">
-        <v>14</v>
-      </c>
-      <c r="G196">
-        <v>1973</v>
-      </c>
-      <c r="H196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>70</v>
-      </c>
-      <c r="B197">
-        <v>4</v>
-      </c>
-      <c r="C197">
-        <v>98</v>
-      </c>
-      <c r="D197">
-        <v>76</v>
-      </c>
-      <c r="E197">
-        <v>2144</v>
-      </c>
-      <c r="F197">
-        <v>15</v>
-      </c>
       <c r="G197">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="H197" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>31</v>
+      <c r="A198">
+        <v>23</v>
       </c>
       <c r="B198">
         <v>4</v>
       </c>
       <c r="C198">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D198">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E198">
-        <v>2490</v>
+        <v>2639</v>
       </c>
       <c r="F198">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G198">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="H198" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C199">
+        <v>260</v>
+      </c>
+      <c r="D199">
         <v>90</v>
       </c>
-      <c r="D199">
-        <v>48</v>
-      </c>
       <c r="E199">
-        <v>1985</v>
+        <v>3420</v>
       </c>
       <c r="F199">
         <v>22</v>
       </c>
       <c r="G199">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="H199" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D200">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E200">
-        <v>1937</v>
+        <v>3630</v>
       </c>
       <c r="F200">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G200">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="H200" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>32</v>
+      <c r="A201">
+        <v>21</v>
       </c>
       <c r="B201">
         <v>4</v>
       </c>
       <c r="C201">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D201">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E201">
-        <v>1945</v>
+        <v>2401</v>
       </c>
       <c r="F201">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G201">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C202">
-        <v>116</v>
+        <v>390</v>
       </c>
       <c r="D202">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="E202">
-        <v>2246</v>
+        <v>3850</v>
       </c>
       <c r="F202">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G202">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="H202" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>23</v>
+      <c r="A203" t="s">
+        <v>63</v>
       </c>
       <c r="B203">
         <v>4</v>
       </c>
       <c r="C203">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D203">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E203">
-        <v>2639</v>
+        <v>2110</v>
       </c>
       <c r="F203">
+        <v>19</v>
+      </c>
+      <c r="G203">
+        <v>1981</v>
+      </c>
+      <c r="H203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>18</v>
+      </c>
+      <c r="B204">
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>250</v>
+      </c>
+      <c r="D204">
+        <v>88</v>
+      </c>
+      <c r="E204">
+        <v>3021</v>
+      </c>
+      <c r="F204">
         <v>17</v>
       </c>
-      <c r="G203">
-        <v>1976</v>
-      </c>
-      <c r="H203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>72</v>
-      </c>
-      <c r="B204">
-        <v>8</v>
-      </c>
-      <c r="C204">
-        <v>260</v>
-      </c>
-      <c r="D204">
-        <v>90</v>
-      </c>
-      <c r="E204">
-        <v>3420</v>
-      </c>
-      <c r="F204">
-        <v>22</v>
-      </c>
       <c r="G204">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="H204" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B205">
+        <v>8</v>
+      </c>
+      <c r="C205">
+        <v>307</v>
+      </c>
+      <c r="D205">
+        <v>130</v>
+      </c>
+      <c r="E205">
+        <v>4098</v>
+      </c>
+      <c r="F205">
+        <v>14</v>
+      </c>
+      <c r="G205">
+        <v>1973</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206">
         <v>6</v>
       </c>
-      <c r="C205">
-        <v>225</v>
-      </c>
-      <c r="D205">
-        <v>100</v>
-      </c>
-      <c r="E205">
-        <v>3630</v>
-      </c>
-      <c r="F205">
-        <v>18</v>
-      </c>
-      <c r="G205">
-        <v>1978</v>
-      </c>
-      <c r="H205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>21</v>
-      </c>
-      <c r="B206">
-        <v>4</v>
-      </c>
       <c r="C206">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D206">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E206">
-        <v>2401</v>
+        <v>2900</v>
       </c>
       <c r="F206">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G206">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="H206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
+        <v>22</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>146</v>
+      </c>
+      <c r="D207">
+        <v>97</v>
+      </c>
+      <c r="E207">
+        <v>2815</v>
+      </c>
+      <c r="F207">
         <v>15</v>
       </c>
-      <c r="B207">
-        <v>8</v>
-      </c>
-      <c r="C207">
-        <v>390</v>
-      </c>
-      <c r="D207">
-        <v>190</v>
-      </c>
-      <c r="E207">
-        <v>3850</v>
-      </c>
-      <c r="F207">
-        <v>9</v>
-      </c>
       <c r="G207">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="H207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="D208">
+        <v>165</v>
+      </c>
+      <c r="E208">
+        <v>3445</v>
+      </c>
+      <c r="F208">
+        <v>13</v>
+      </c>
+      <c r="G208">
+        <v>1979</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>65</v>
       </c>
-      <c r="E208">
-        <v>2110</v>
-      </c>
-      <c r="F208">
-        <v>19</v>
-      </c>
-      <c r="G208">
-        <v>1981</v>
-      </c>
-      <c r="H208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>18</v>
-      </c>
       <c r="B209">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C209">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="D209">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E209">
-        <v>3021</v>
+        <v>1755</v>
       </c>
       <c r="F209">
         <v>17</v>
       </c>
       <c r="G209">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="H209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="D210">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E210">
-        <v>4098</v>
+        <v>2074</v>
       </c>
       <c r="F210">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G210">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H210" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>12</v>
+      <c r="A211">
+        <v>22</v>
       </c>
       <c r="B211">
         <v>6</v>
       </c>
       <c r="C211">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="D211">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E211">
-        <v>2900</v>
+        <v>3233</v>
       </c>
       <c r="F211">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G211">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>22</v>
+      <c r="A212" t="s">
+        <v>66</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D212">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E212">
-        <v>2815</v>
+        <v>2615</v>
       </c>
       <c r="F212">
         <v>15</v>
       </c>
       <c r="G212">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>74</v>
+      <c r="A213">
+        <v>37</v>
       </c>
       <c r="B213">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C213">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="D213">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="E213">
-        <v>3445</v>
+        <v>1975</v>
       </c>
       <c r="F213">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G213">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="H213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B214">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C214">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="D214">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E214">
-        <v>1755</v>
+        <v>4215</v>
       </c>
       <c r="F214">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G214">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>30</v>
+      <c r="A215" t="s">
+        <v>68</v>
       </c>
       <c r="B215">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="D215">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E215">
-        <v>2074</v>
+        <v>2595</v>
       </c>
       <c r="F215">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G215">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="H215" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="D216">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E216">
-        <v>3233</v>
+        <v>4295</v>
       </c>
       <c r="F216">
         <v>15</v>
       </c>
       <c r="G216">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="H216" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="D217">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E217">
-        <v>2615</v>
+        <v>3193</v>
       </c>
       <c r="F217">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G217">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="H217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>69</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218">
+        <v>121</v>
+      </c>
+      <c r="D218">
+        <v>115</v>
+      </c>
+      <c r="E218">
+        <v>2795</v>
+      </c>
+      <c r="F218">
+        <v>16</v>
+      </c>
+      <c r="G218">
+        <v>1979</v>
+      </c>
+      <c r="H218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>37</v>
-      </c>
-      <c r="B218">
-        <v>4</v>
-      </c>
-      <c r="C218">
-        <v>85</v>
-      </c>
-      <c r="D218">
-        <v>65</v>
-      </c>
-      <c r="E218">
-        <v>1975</v>
-      </c>
-      <c r="F218">
-        <v>19</v>
-      </c>
-      <c r="G218">
-        <v>1982</v>
-      </c>
-      <c r="H218" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>77</v>
       </c>
       <c r="B219">
         <v>8</v>
       </c>
       <c r="C219">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="D219">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E219">
-        <v>4215</v>
+        <v>4457</v>
       </c>
       <c r="F219">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G219">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="H219" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B220">
         <v>6</v>
       </c>
       <c r="C220">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D220">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E220">
-        <v>2595</v>
+        <v>3820</v>
       </c>
       <c r="F220">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G220">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="H220" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B221">
         <v>8</v>
@@ -6858,1085 +6849,955 @@
         <v>302</v>
       </c>
       <c r="D221">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E221">
-        <v>4295</v>
+        <v>4042</v>
       </c>
       <c r="F221">
         <v>15</v>
       </c>
       <c r="G221">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="H221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>32</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>83</v>
+      </c>
+      <c r="D222">
+        <v>61</v>
+      </c>
+      <c r="E222">
+        <v>2003</v>
+      </c>
+      <c r="F222">
+        <v>19</v>
+      </c>
+      <c r="G222">
+        <v>1975</v>
+      </c>
+      <c r="H222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>29</v>
-      </c>
-      <c r="B222">
-        <v>6</v>
-      </c>
-      <c r="C222">
-        <v>258</v>
-      </c>
-      <c r="D222">
-        <v>95</v>
-      </c>
-      <c r="E222">
-        <v>3193</v>
-      </c>
-      <c r="F222">
-        <v>18</v>
-      </c>
-      <c r="G222">
-        <v>1977</v>
-      </c>
-      <c r="H222" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>79</v>
-      </c>
-      <c r="B223">
-        <v>4</v>
-      </c>
       <c r="C223">
-        <v>121</v>
+        <v>360</v>
       </c>
       <c r="D223">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="E223">
-        <v>2795</v>
+        <v>4615</v>
       </c>
       <c r="F223">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G223">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="H223" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B224">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="D224">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="E224">
-        <v>4457</v>
+        <v>1649</v>
       </c>
       <c r="F224">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G224">
         <v>1975</v>
       </c>
       <c r="H224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>26</v>
+      <c r="A225">
+        <v>21</v>
       </c>
       <c r="B225">
         <v>6</v>
       </c>
       <c r="C225">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D225">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E225">
-        <v>3820</v>
+        <v>2587</v>
       </c>
       <c r="F225">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G225">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="H225" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="D226">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="E226">
-        <v>4042</v>
+        <v>2790</v>
       </c>
       <c r="F226">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G226">
-        <v>1974</v>
+        <v>1983</v>
       </c>
       <c r="H226" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C227">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="D227">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="E227">
-        <v>2003</v>
+        <v>3563</v>
       </c>
       <c r="F227">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G227">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="H227" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B228">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C228">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="D228">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="E228">
-        <v>4615</v>
+        <v>2625</v>
       </c>
       <c r="F228">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G228">
-        <v>1971</v>
+        <v>1983</v>
       </c>
       <c r="H228" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B229">
         <v>4</v>
       </c>
       <c r="C229">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D229">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E229">
-        <v>1649</v>
+        <v>2592</v>
       </c>
       <c r="F229">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G229">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="H229" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B230">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="D230">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="E230">
-        <v>2587</v>
+        <v>4498</v>
       </c>
       <c r="F230">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G230">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="H230" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B231">
         <v>4</v>
       </c>
       <c r="C231">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D231">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E231">
-        <v>2790</v>
+        <v>3150</v>
       </c>
       <c r="F231">
         <v>16</v>
       </c>
       <c r="G231">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="H231" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B232">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C232">
-        <v>383</v>
+        <v>97</v>
       </c>
       <c r="D232">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="E232">
-        <v>3563</v>
+        <v>2130</v>
       </c>
       <c r="F232">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G232">
-        <v>1971</v>
+        <v>1983</v>
       </c>
       <c r="H232" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B233">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C233">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="D233">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="E233">
-        <v>2625</v>
+        <v>4096</v>
       </c>
       <c r="F233">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G233">
-        <v>1983</v>
+        <v>1972</v>
       </c>
       <c r="H233" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>23</v>
+      <c r="A234" t="s">
+        <v>18</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C234">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="D234">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E234">
-        <v>2592</v>
+        <v>2965</v>
       </c>
       <c r="F234">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G234">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="H234" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
+        <v>39</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>86</v>
+      </c>
+      <c r="D235">
+        <v>64</v>
+      </c>
+      <c r="E235">
+        <v>1875</v>
+      </c>
+      <c r="F235">
         <v>16</v>
       </c>
-      <c r="B235">
-        <v>8</v>
-      </c>
-      <c r="C235">
-        <v>318</v>
-      </c>
-      <c r="D235">
-        <v>150</v>
-      </c>
-      <c r="E235">
-        <v>4498</v>
-      </c>
-      <c r="F235">
-        <v>15</v>
-      </c>
       <c r="G235">
-        <v>1976</v>
+        <v>1982</v>
       </c>
       <c r="H235" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B236">
         <v>4</v>
       </c>
       <c r="C236">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D236">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E236">
-        <v>3150</v>
+        <v>2220</v>
       </c>
       <c r="F236">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G236">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="H236" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C237">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="D237">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="E237">
-        <v>2130</v>
+        <v>4055</v>
       </c>
       <c r="F237">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G237">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="H237" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238">
+        <v>225</v>
+      </c>
+      <c r="D238">
+        <v>105</v>
+      </c>
+      <c r="E238">
+        <v>3121</v>
+      </c>
+      <c r="F238">
+        <v>17</v>
+      </c>
+      <c r="G238">
+        <v>1974</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>16</v>
+      </c>
+      <c r="B239">
         <v>8</v>
       </c>
-      <c r="C238">
-        <v>318</v>
-      </c>
-      <c r="D238">
-        <v>150</v>
-      </c>
-      <c r="E238">
-        <v>4096</v>
-      </c>
-      <c r="F238">
-        <v>13</v>
-      </c>
-      <c r="G238">
-        <v>1972</v>
-      </c>
-      <c r="H238" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>27</v>
-      </c>
-      <c r="B239">
-        <v>6</v>
-      </c>
       <c r="C239">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D239">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E239">
-        <v>2965</v>
+        <v>4220</v>
       </c>
       <c r="F239">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G239">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H239" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B240">
         <v>4</v>
       </c>
       <c r="C240">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D240">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E240">
-        <v>1875</v>
+        <v>2672</v>
       </c>
       <c r="F240">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G240">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="H240" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C241">
-        <v>122</v>
+        <v>454</v>
       </c>
       <c r="D241">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="E241">
-        <v>2220</v>
+        <v>4354</v>
       </c>
       <c r="F241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G241">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="H241" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B242">
         <v>8</v>
       </c>
       <c r="C242">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D242">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E242">
-        <v>4055</v>
+        <v>3399</v>
       </c>
       <c r="F242">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G242">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="H242" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>70</v>
+      </c>
+      <c r="B243">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>18</v>
-      </c>
-      <c r="B243">
-        <v>6</v>
-      </c>
       <c r="C243">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="D243">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="E243">
-        <v>3121</v>
+        <v>3735</v>
       </c>
       <c r="F243">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G243">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="H243" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>16</v>
+      <c r="A244" t="s">
+        <v>71</v>
       </c>
       <c r="B244">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C244">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="D244">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="E244">
-        <v>4220</v>
+        <v>2085</v>
       </c>
       <c r="F244">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G244">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="H244" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B245">
         <v>4</v>
       </c>
       <c r="C245">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D245">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E245">
-        <v>2672</v>
+        <v>2155</v>
       </c>
       <c r="F245">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G245">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="H245" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
+        <v>29</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>135</v>
+      </c>
+      <c r="D246">
+        <v>84</v>
+      </c>
+      <c r="E246">
+        <v>2525</v>
+      </c>
+      <c r="F246">
+        <v>16</v>
+      </c>
+      <c r="G246">
+        <v>1983</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>72</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>98</v>
+      </c>
+      <c r="D247">
+        <v>70</v>
+      </c>
+      <c r="E247">
+        <v>2120</v>
+      </c>
+      <c r="F247">
+        <v>16</v>
+      </c>
+      <c r="G247">
+        <v>1981</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>24</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>121</v>
+      </c>
+      <c r="D248">
+        <v>110</v>
+      </c>
+      <c r="E248">
+        <v>2660</v>
+      </c>
+      <c r="F248">
         <v>14</v>
       </c>
-      <c r="B246">
-        <v>8</v>
-      </c>
-      <c r="C246">
-        <v>454</v>
-      </c>
-      <c r="D246">
-        <v>220</v>
-      </c>
-      <c r="E246">
-        <v>4354</v>
-      </c>
-      <c r="F246">
-        <v>9</v>
-      </c>
-      <c r="G246">
-        <v>1971</v>
-      </c>
-      <c r="H246" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>15</v>
-      </c>
-      <c r="B247">
-        <v>8</v>
-      </c>
-      <c r="C247">
-        <v>318</v>
-      </c>
-      <c r="D247">
-        <v>150</v>
-      </c>
-      <c r="E247">
-        <v>3399</v>
-      </c>
-      <c r="F247">
-        <v>11</v>
-      </c>
-      <c r="G247">
+      <c r="G248">
         <v>1974</v>
       </c>
-      <c r="H247" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>80</v>
-      </c>
-      <c r="B248">
-        <v>8</v>
-      </c>
-      <c r="C248">
-        <v>318</v>
-      </c>
-      <c r="D248">
-        <v>140</v>
-      </c>
-      <c r="E248">
-        <v>3735</v>
-      </c>
-      <c r="F248">
-        <v>13</v>
-      </c>
-      <c r="G248">
-        <v>1979</v>
-      </c>
       <c r="H248" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C249">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D249">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E249">
-        <v>2085</v>
+        <v>2950</v>
       </c>
       <c r="F249">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G249">
         <v>1981</v>
       </c>
       <c r="H249" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C250">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="D250">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E250">
-        <v>2155</v>
+        <v>3988</v>
       </c>
       <c r="F250">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G250">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="H250" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>29</v>
+      <c r="A251" t="s">
+        <v>74</v>
       </c>
       <c r="B251">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C251">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D251">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E251">
-        <v>2525</v>
+        <v>2725</v>
       </c>
       <c r="F251">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G251">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H251" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>82</v>
+      <c r="A252">
+        <v>24</v>
       </c>
       <c r="B252">
         <v>4</v>
       </c>
       <c r="C252">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D252">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E252">
-        <v>2120</v>
+        <v>2372</v>
       </c>
       <c r="F252">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G252">
-        <v>1981</v>
+        <v>1971</v>
       </c>
       <c r="H252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C253">
-        <v>121</v>
+        <v>305</v>
       </c>
       <c r="D253">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E253">
-        <v>2660</v>
+        <v>3840</v>
       </c>
       <c r="F253">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G253">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="H253" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D254">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E254">
-        <v>2950</v>
+        <v>1800</v>
       </c>
       <c r="F254">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G254">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="H254" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B255">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="D255">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="E255">
-        <v>3988</v>
+        <v>2835</v>
       </c>
       <c r="F255">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G255">
-        <v>1974</v>
+        <v>1983</v>
       </c>
       <c r="H255" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>84</v>
+      <c r="A256">
+        <v>18</v>
       </c>
       <c r="B256">
         <v>6</v>
       </c>
       <c r="C256">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="D256">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E256">
-        <v>2725</v>
+        <v>3288</v>
       </c>
       <c r="F256">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G256">
-        <v>1982</v>
+        <v>1972</v>
       </c>
       <c r="H256" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C257">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="D257">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E257">
-        <v>2372</v>
+        <v>3353</v>
       </c>
       <c r="F257">
         <v>15</v>
       </c>
       <c r="G257">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="H257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>17</v>
-      </c>
-      <c r="B258">
-        <v>8</v>
-      </c>
-      <c r="C258">
-        <v>305</v>
-      </c>
-      <c r="D258">
-        <v>130</v>
-      </c>
-      <c r="E258">
-        <v>3840</v>
-      </c>
-      <c r="F258">
-        <v>15</v>
-      </c>
-      <c r="G258">
-        <v>1980</v>
-      </c>
-      <c r="H258" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>53</v>
-      </c>
-      <c r="B259">
-        <v>4</v>
-      </c>
-      <c r="C259">
-        <v>91</v>
-      </c>
-      <c r="D259">
-        <v>60</v>
-      </c>
-      <c r="E259">
-        <v>1800</v>
-      </c>
-      <c r="F259">
-        <v>16</v>
-      </c>
-      <c r="G259">
-        <v>1979</v>
-      </c>
-      <c r="H259" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>22</v>
-      </c>
-      <c r="B260">
-        <v>6</v>
-      </c>
-      <c r="C260">
-        <v>232</v>
-      </c>
-      <c r="D260">
-        <v>112</v>
-      </c>
-      <c r="E260">
-        <v>2835</v>
-      </c>
-      <c r="F260">
-        <v>15</v>
-      </c>
-      <c r="G260">
-        <v>1983</v>
-      </c>
-      <c r="H260" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>18</v>
-      </c>
-      <c r="B261">
-        <v>6</v>
-      </c>
-      <c r="C261">
-        <v>232</v>
-      </c>
-      <c r="D261">
-        <v>100</v>
-      </c>
-      <c r="E261">
-        <v>3288</v>
-      </c>
-      <c r="F261">
-        <v>16</v>
-      </c>
-      <c r="G261">
-        <v>1972</v>
-      </c>
-      <c r="H261" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>22</v>
-      </c>
-      <c r="B262">
-        <v>6</v>
-      </c>
-      <c r="C262">
-        <v>250</v>
-      </c>
-      <c r="D262">
-        <v>105</v>
-      </c>
-      <c r="E262">
-        <v>3353</v>
-      </c>
-      <c r="F262">
-        <v>15</v>
-      </c>
-      <c r="G262">
-        <v>1977</v>
-      </c>
-      <c r="H262" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
